--- a/detailes.xlsx
+++ b/detailes.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="competitors" sheetId="1" r:id="rId1"/>
     <sheet name="competitions" sheetId="2" r:id="rId2"/>
-    <sheet name="divisions" sheetId="3" r:id="rId3"/>
-    <sheet name="categories" sheetId="4" r:id="rId4"/>
+    <sheet name="competitionAddons" sheetId="5" r:id="rId3"/>
+    <sheet name="additional scores" sheetId="6" r:id="rId4"/>
+    <sheet name="divisions" sheetId="3" r:id="rId5"/>
+    <sheet name="categories" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="141">
   <si>
     <t xml:space="preserve">Aveo Latin Ladies Team </t>
   </si>
@@ -402,16 +404,71 @@
   </si>
   <si>
     <t xml:space="preserve">Zouk Couples Amateur Semi Final Choreography </t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>emily woodfield</t>
+  </si>
+  <si>
+    <t>jeremy sim</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>sharon</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>vivio</t>
+  </si>
+  <si>
+    <t>greydis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -425,7 +482,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -433,12 +490,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +796,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1657,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J2:J26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,6 +2508,582 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A14:J42"/>
+  <sheetViews>
+    <sheetView topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="187.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" ref="C4:C26" si="0">"comp" &amp;SUBSTITUTE(SUBSTITUTE(B14," ",""),"–","")</f>
+        <v>compProAmSemiFinalsChoreography</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ref="D2:D25" si="1">C14 &amp; "," &amp;D13</f>
+        <v>compProAmSemiFinalsChoreography,</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" ref="J3:J26" si="2">"var "&amp;C14&amp;" = new Competition { Id = Guid.NewGuid(), Location = location, Name = """&amp;B14&amp;""", " &amp; "Category = "&amp;F14&amp;".Categories.First(x=&gt;x.Caption=="""&amp;G14&amp;"""), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse(""2014-11-15 "&amp;A14&amp;"""), CompletedOn = null, " &amp; "CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };"</f>
+        <v>var compProAmSemiFinalsChoreography = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Pro Am Semi Finals Choreography ", Category = divProAm.Categories.First(x=&gt;x.Caption=="Salsa Couples Lead Pro"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 5.46pm "), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>compProAmFinalsImprovisation</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>compProAmFinalsImprovisation,compProAmSemiFinalsChoreography,</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>var compProAmFinalsImprovisation = new Competition { Id = Guid.NewGuid(), Location = location, Name = "Pro Am Finals Improvisation ", Category = divProAm.Categories.First(x=&gt;x.Caption=="Salsa Couples Lead Pro"), CompetitionStatus = CompetitionStatus.Created, StartedOn = DateTimeOffset.Parse("2014-11-15 5.54pm "), CompletedOn = null, CreatedOn = DateTimeOffset.Now, CompetitorCompetitions = competitorCompetitions, JudgeCompetitions = judgeCompetitions };</v>
+      </c>
+    </row>
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J28" t="str">
+        <f>"new List&lt;Competition&gt;{" &amp; D26 &amp; "}.ForEach(x=&gt;context.Competitions.Add(x));"</f>
+        <v>new List&lt;Competition&gt;{}.ForEach(x=&gt;context.Competitions.Add(x));</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" t="b">
+        <f>competitions!J28="new List&lt;Competitor&gt;{" &amp; B40 &amp; "}.ForEach(x=&gt;context.Competitors.Add(x));"</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>divisions!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>categories!$A$1:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G26</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="A1:J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3">
+        <v>17.5</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>17.5</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <f>SUM(D3:H3)</f>
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <f>I3/4</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4">
+        <v>18.5</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I7" si="0">SUM(D4:H4)</f>
+        <v>54.5</v>
+      </c>
+      <c r="J4">
+        <f>I4/3</f>
+        <v>18.166666666666668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="J5">
+        <f>I5/2</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>18.5</v>
+      </c>
+      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>54.5</v>
+      </c>
+      <c r="J6">
+        <f>I6/3</f>
+        <v>18.166666666666668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
+        <f>SUM(D7:H7)</f>
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <f>I7/3</f>
+        <v>17.666666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8">
+        <f>SUM(J3:J7)</f>
+        <v>89.000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>15.5</v>
+      </c>
+      <c r="I15">
+        <f>SUM(D15:H15)</f>
+        <v>59.5</v>
+      </c>
+      <c r="J15">
+        <f>I15/4</f>
+        <v>14.875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I18" si="1">SUM(D16:H16)</f>
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <f>I16/3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17">
+        <v>15.5</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>29.5</v>
+      </c>
+      <c r="J17">
+        <f>I17/2</f>
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J18">
+        <f>I18/3</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <v>15.5</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <f>SUM(D19:H19)</f>
+        <v>47.5</v>
+      </c>
+      <c r="J19">
+        <f>I19/3</f>
+        <v>15.833333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="J20">
+        <f>SUM(J15:J19)</f>
+        <v>74.458333333333329</v>
+      </c>
+      <c r="K20">
+        <f>J20+D20</f>
+        <v>73.458333333333329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>16.5</v>
+      </c>
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <f>SUM(D23:H23)</f>
+        <v>47.5</v>
+      </c>
+      <c r="J23">
+        <f>I23/4</f>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I26" si="2">SUM(D24:H24)</f>
+        <v>62</v>
+      </c>
+      <c r="J24">
+        <f>I24/3</f>
+        <v>20.666666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
+        <v>15.5</v>
+      </c>
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>31.5</v>
+      </c>
+      <c r="J25">
+        <f>I25/2</f>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>17.5</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>48.5</v>
+      </c>
+      <c r="J26">
+        <f>I26/3</f>
+        <v>16.166666666666668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>15.5</v>
+      </c>
+      <c r="G27">
+        <v>16</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <f>SUM(D27:H27)</f>
+        <v>47.5</v>
+      </c>
+      <c r="J27">
+        <f>I27/3</f>
+        <v>15.833333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>SUM(J23:J27)</f>
+        <v>80.291666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
